--- a/积累.xlsx
+++ b/积累.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="2017打卡" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="294">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -4302,6 +4301,45 @@
     <rPh sb="0" eb="1">
       <t>fan'sigong'chengjie'guo</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-150</t>
+  </si>
+  <si>
+    <t>-150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4398,9 +4436,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -4417,6 +4452,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4736,1519 +4774,1697 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="9" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="88.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="51.33203125" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="8.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="88.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="51.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>20180101</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>5779</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>20180102</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>3529</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>20180103</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>3256</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>20180104</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>3450</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>20180105</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>3351</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>20180106</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>3298</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>20180107</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>3638</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>20180108</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3968</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>20180109</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>3193</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>20180110</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>4138</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>20180111</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>3535</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>20180112</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>4554</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>20180113</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>7279</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>20180114</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>4680</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>20180115</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>4776</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>20180116</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>5714</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>20180117</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>3295</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>20180118</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>4580</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20180119</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>4389</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>20180120</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>3753</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="J22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>20180121</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>3713</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20180122</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>3110</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>20180123</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>4399</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>20180124</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>3266</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>20180125</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>3205</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>20180126</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>4677</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>20180127</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>3119</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>20180128</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>3587</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>20180129</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>3948</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>20180130</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>3299</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>20180131</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>3449</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>20180201</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>3274</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>20180202</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>3126</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>20180203</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>3318</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>20180204</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>3246</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>20180205</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>3138</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>20180206</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>3535</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>20180207</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>20180208</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>20180209</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>20180210</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>20180211</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>20180212</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="B45" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>20180213</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>20180214</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>20180215</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>20180216</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>20180217</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>20180218</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>20180219</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>20180220</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>20180221</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>20180222</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>20180223</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>20180224</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>20180225</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>20180226</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>20180227</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>20180228</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>20180301</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>20180302</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>20180303</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>20180304</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>20180305</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>20180306</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>20180307</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>20180308</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>20180309</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>20180310</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>20180311</v>
       </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>20180312</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>20180313</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>20180314</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>20180315</v>
       </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6272,14 +6488,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="7" customFormat="1">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:3" s="6" customFormat="1">
+      <c r="B1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6299,1249 +6515,1249 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="13" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30" style="3" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>20171110</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>2131</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>20171111</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2422</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>20171112</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>20171113</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>303</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>20171114</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>655</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>143</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>20171115</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>2286</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>149</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>20171116</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1754</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>178</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>20171117</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>993</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>49</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>20171118</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1721</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>188</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>20171119</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>1361</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>358</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>20171120</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2142</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>471</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>20171121</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>1139</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>602</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>20171122</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>1383</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>463</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>20171123</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>1171</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>161</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>20171124</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>76</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>20171125</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>833</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>20171126</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>0</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>0</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>20171127</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>2879</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>20171128</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20171129</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>20171130</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>48</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>20171201</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>838</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>20171202</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>1410</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="4"/>
+      <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>20171203</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>1269</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>20171204</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>1605</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>20171205</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>4483</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>20171206</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>2420</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>20171207</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>2176</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>20171208</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>1365</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>20171209</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>3143</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>0</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>20171210</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>2000</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>0</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>20171211</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>2608</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>20171212</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>1981</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>0</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>20171213</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>1979</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>0</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>20171214</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>0</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>20171215</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>1575</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>0</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>20171216</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>1521</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>20171217</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>2142</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>0</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>20171218</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>2881</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>0</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>20171219</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>1714</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>0</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>20171220</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>3898</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>0</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="3"/>
+      <c r="F42" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>20171221</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>4301</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>0</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="3"/>
+      <c r="F43" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H43" s="4"/>
+      <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>20171222</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>3107</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="3"/>
+      <c r="F44" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H44" s="4"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>20171223</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>1368</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>0</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>20171224</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>2119</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>0</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="3"/>
+      <c r="F46" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>20171225</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>2642</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>0</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>20171226</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>3305</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>0</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="3">
         <v>2</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>20171227</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>2533</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>0</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>20171228</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="3">
         <v>3674</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>0</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="3">
         <v>0</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>20171229</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="3">
         <v>6646</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>0</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="3">
         <v>0</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>20171230</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>2057</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>0</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>20171231</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>3936</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="3">
         <v>0</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="3" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <f>SUM(C2:C53)</f>
         <v>99917</v>
       </c>

--- a/积累.xlsx
+++ b/积累.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="146">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2334,6 +2334,10 @@
   </si>
   <si>
     <t>-156</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2772,8 +2776,8 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <pane ySplit="1420" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3638,7 +3642,9 @@
       <c r="D47" s="3"/>
       <c r="E47" s="10"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8">

--- a/积累.xlsx
+++ b/积累.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han/Desktop/GrowUp2018/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C69D5-1A84-0D4B-BB58-01C97AB14B4C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="24260" windowHeight="14520" xr2:uid="{64A2B689-E032-EC4E-9593-E79ABD3215CA}"/>
   </bookViews>
   <sheets>
     <sheet name="2018打卡" sheetId="1" r:id="rId1"/>
     <sheet name="每日反思内容" sheetId="4" r:id="rId2"/>
-    <sheet name="资产负债表" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="162">
   <si>
     <t>联系亲友</t>
     <rPh sb="0" eb="1">
@@ -2175,20 +2175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我有的</t>
-    <rPh sb="0" eb="3">
-      <t>wo'yu'de</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要的</t>
-    <rPh sb="0" eb="3">
-      <t>wo'yao'de</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>时间开支</t>
     <rPh sb="0" eb="2">
       <t>tou'ru</t>
@@ -2203,13 +2189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>工作收入</t>
-    <rPh sb="0" eb="4">
-      <t>ji'suan'ji</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>被动支出</t>
     <rPh sb="0" eb="4">
       <t>tou'ru</t>
@@ -2308,36 +2287,109 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>资产</t>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-156</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1511</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3597</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1792</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4971</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1757</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1587</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1648</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>873</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20180212</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1542</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1981</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3357</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2087</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作定投收入</t>
+    <rPh sb="0" eb="72">
+      <t>ji'suan'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文定投</t>
     <rPh sb="0" eb="2">
-      <t>zi'chan</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>负债</t>
-    <rPh sb="0" eb="2">
-      <t>fu'zhai</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期收益</t>
-    <rPh sb="0" eb="4">
-      <t>yu'qi'shou'yi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-156</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+      <t>lun'wen</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2345,7 +2397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2378,15 +2430,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2396,7 +2439,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2413,13 +2456,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2435,15 +2487,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2456,7 +2499,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2776,323 +2843,327 @@
   <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1420" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <pane ySplit="1420" topLeftCell="A56"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="16" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8">
+    <row r="1" spans="1:9">
+      <c r="A1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
         <v>20180101</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="11">
         <v>5779</v>
       </c>
+      <c r="E3" s="15"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="3">
         <v>20180102</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
+      <c r="B4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10">
+      <c r="D4" s="11">
         <v>3529</v>
       </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="3">
         <v>20180103</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="11">
         <v>3256</v>
       </c>
+      <c r="E5" s="15"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>20180104</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12">
+      <c r="D6" s="12">
         <v>3450</v>
       </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="3">
         <v>20180105</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10">
+      <c r="D7" s="11">
         <v>3351</v>
       </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="3">
         <v>20180106</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10">
+      <c r="D8" s="11">
         <v>3298</v>
       </c>
+      <c r="E8" s="15"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="3">
         <v>20180107</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="10">
+      <c r="D9" s="11">
         <v>3638</v>
       </c>
+      <c r="E9" s="15"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="3">
         <v>20180108</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="10">
+      <c r="D10" s="11">
         <v>3968</v>
       </c>
+      <c r="E10" s="15"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <v>20180109</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="B11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="10">
+      <c r="D11" s="11">
         <v>3193</v>
       </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="3">
         <v>20180110</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="B12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="10">
+      <c r="D12" s="11">
         <v>4138</v>
       </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>20180111</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
+      <c r="B13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="10">
+      <c r="D13" s="11">
         <v>3535</v>
       </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="3">
         <v>20180112</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="10">
+      <c r="D14" s="11">
         <v>4554</v>
       </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>20180113</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="10">
+      <c r="D15" s="11">
         <v>7279</v>
       </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="3">
         <v>20180114</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="10">
+      <c r="D16" s="11">
         <v>4680</v>
       </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3101,36 +3172,36 @@
       <c r="A17" s="3">
         <v>20180115</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
+      <c r="B17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="10">
+      <c r="D17" s="11">
         <v>4776</v>
       </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
         <v>20180116</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="B18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="10">
+      <c r="D18" s="11">
         <v>5714</v>
       </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -3139,36 +3210,36 @@
       <c r="A19" s="3">
         <v>20180117</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
+      <c r="B19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="10">
+      <c r="D19" s="11">
         <v>3295</v>
       </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3">
         <v>20180118</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="10">
+      <c r="D20" s="11">
         <v>4580</v>
       </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -3177,16 +3248,16 @@
       <c r="A21" s="3">
         <v>20180119</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="10">
+      <c r="D21" s="11">
         <v>4389</v>
       </c>
+      <c r="E21" s="15"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -3195,16 +3266,16 @@
       <c r="A22" s="3">
         <v>20180120</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="10">
+      <c r="D22" s="11">
         <v>3753</v>
       </c>
+      <c r="E22" s="15"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3213,36 +3284,36 @@
       <c r="A23" s="3">
         <v>20180121</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="10">
+      <c r="D23" s="11">
         <v>3713</v>
       </c>
+      <c r="E23" s="15"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
         <v>20180122</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="10">
+      <c r="D24" s="11">
         <v>3110</v>
       </c>
+      <c r="E24" s="15"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3251,36 +3322,36 @@
       <c r="A25" s="3">
         <v>20180123</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="10">
+      <c r="D25" s="11">
         <v>4399</v>
       </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
         <v>20180124</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3" t="s">
+      <c r="B26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="10">
+      <c r="D26" s="11">
         <v>3266</v>
       </c>
+      <c r="E26" s="15"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3289,36 +3360,36 @@
       <c r="A27" s="3">
         <v>20180125</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="10">
+      <c r="D27" s="11">
         <v>3205</v>
       </c>
+      <c r="E27" s="15"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3">
         <v>20180126</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
+      <c r="B28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="10">
+      <c r="D28" s="11">
         <v>4677</v>
       </c>
+      <c r="E28" s="15"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -3327,36 +3398,36 @@
       <c r="A29" s="3">
         <v>20180127</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="10">
+      <c r="D29" s="11">
         <v>3119</v>
       </c>
+      <c r="E29" s="15"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
         <v>20180128</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
+      <c r="B30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="10">
+      <c r="D30" s="11">
         <v>3587</v>
       </c>
+      <c r="E30" s="15"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -3365,36 +3436,36 @@
       <c r="A31" s="3">
         <v>20180129</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="10">
+      <c r="D31" s="11">
         <v>3948</v>
       </c>
+      <c r="E31" s="15"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3">
         <v>20180130</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="10">
+      <c r="D32" s="11">
         <v>3299</v>
       </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -3403,16 +3474,16 @@
       <c r="A33" s="3">
         <v>20180131</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+      <c r="B33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="10">
+      <c r="D33" s="11">
         <v>3449</v>
       </c>
+      <c r="E33" s="15"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -3421,16 +3492,16 @@
       <c r="A34" s="3">
         <v>20180201</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="10">
+      <c r="D34" s="11">
         <v>3274</v>
       </c>
+      <c r="E34" s="15"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -3439,16 +3510,16 @@
       <c r="A35" s="3">
         <v>20180202</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="B35" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="10">
+      <c r="D35" s="11">
         <v>3126</v>
       </c>
+      <c r="E35" s="15"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -3457,16 +3528,16 @@
       <c r="A36" s="3">
         <v>20180203</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
+      <c r="B36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="10">
+      <c r="D36" s="11">
         <v>3318</v>
       </c>
+      <c r="E36" s="15"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3475,16 +3546,16 @@
       <c r="A37" s="3">
         <v>20180204</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3" t="s">
+      <c r="B37" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="10">
+      <c r="D37" s="11">
         <v>3246</v>
       </c>
+      <c r="E37" s="15"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -3493,54 +3564,56 @@
       <c r="A38" s="3">
         <v>20180205</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3" t="s">
+      <c r="B38" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="10">
+      <c r="D38" s="11">
         <v>3138</v>
       </c>
+      <c r="E38" s="15"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>20180206</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3" t="s">
+      <c r="B39" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="10">
+      <c r="D39" s="11">
         <v>3535</v>
       </c>
+      <c r="E39" s="15"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3">
         <v>20180207</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="10"/>
+      <c r="D40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" s="15"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -3549,12 +3622,14 @@
       <c r="A41" s="3">
         <v>20180208</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>131</v>
+      <c r="B41" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="10"/>
+      <c r="D41" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="15"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -3563,12 +3638,14 @@
       <c r="A42" s="3">
         <v>20180209</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>131</v>
+      <c r="B42" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="10"/>
+      <c r="D42" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="15"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -3577,12 +3654,14 @@
       <c r="A43" s="3">
         <v>20180210</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>131</v>
+      <c r="B43" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="10"/>
+      <c r="D43" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="15"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -3591,26 +3670,30 @@
       <c r="A44" s="3">
         <v>20180211</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>131</v>
+      <c r="B44" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="10"/>
+      <c r="D44" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="15"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="3">
-        <v>20180212</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>131</v>
+      <c r="A45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="10"/>
+      <c r="D45" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="15"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -3619,12 +3702,14 @@
       <c r="A46" s="3">
         <v>20180213</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>131</v>
+      <c r="B46" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="10"/>
+      <c r="D46" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -3633,17 +3718,19 @@
       <c r="A47" s="3">
         <v>20180214</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="10"/>
+      <c r="B47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>137</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H47" s="3"/>
     </row>
@@ -3651,12 +3738,14 @@
       <c r="A48" s="3">
         <v>20180215</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>131</v>
+      <c r="B48" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="10"/>
+      <c r="D48" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="15"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -3665,12 +3754,14 @@
       <c r="A49" s="3">
         <v>20180216</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>131</v>
+      <c r="B49" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="10"/>
+      <c r="D49" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="15"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -3679,12 +3770,14 @@
       <c r="A50" s="3">
         <v>20180217</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>131</v>
+      <c r="B50" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="10"/>
+      <c r="D50" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="15"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -3693,12 +3786,14 @@
       <c r="A51" s="3">
         <v>20180218</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>131</v>
+      <c r="B51" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="10"/>
+      <c r="D51" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="15"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -3707,12 +3802,14 @@
       <c r="A52" s="3">
         <v>20180219</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>131</v>
+      <c r="B52" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="10"/>
+      <c r="D52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="15"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -3721,12 +3818,14 @@
       <c r="A53" s="3">
         <v>20180220</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>131</v>
+      <c r="B53" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="10"/>
+      <c r="D53" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="15"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -3735,12 +3834,14 @@
       <c r="A54" s="3">
         <v>20180221</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>131</v>
+      <c r="B54" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="10"/>
+      <c r="D54" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="15"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -3749,12 +3850,14 @@
       <c r="A55" s="3">
         <v>20180222</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>131</v>
+      <c r="B55" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="10"/>
+      <c r="D55" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="15"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -3763,12 +3866,16 @@
       <c r="A56" s="3">
         <v>20180223</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>131</v>
+      <c r="B56" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="10"/>
+      <c r="D56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -3777,13 +3884,19 @@
       <c r="A57" s="3">
         <v>20180224</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>131</v>
+      <c r="B57" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
     </row>
@@ -3791,12 +3904,12 @@
       <c r="A58" s="3">
         <v>20180225</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>131</v>
+      <c r="B58" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="10"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="15"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -3805,12 +3918,12 @@
       <c r="A59" s="3">
         <v>20180226</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>131</v>
+      <c r="B59" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="10"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="15"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -3819,12 +3932,12 @@
       <c r="A60" s="3">
         <v>20180227</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>131</v>
+      <c r="B60" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="15"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -3833,12 +3946,12 @@
       <c r="A61" s="3">
         <v>20180228</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>131</v>
+      <c r="B61" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="10"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -3847,12 +3960,12 @@
       <c r="A62" s="3">
         <v>20180301</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>131</v>
+      <c r="B62" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="10"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="15"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -3861,12 +3974,12 @@
       <c r="A63" s="3">
         <v>20180302</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>131</v>
+      <c r="B63" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="10"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="15"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3875,12 +3988,12 @@
       <c r="A64" s="3">
         <v>20180303</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>131</v>
+      <c r="B64" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="10"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="15"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -3889,12 +4002,12 @@
       <c r="A65" s="3">
         <v>20180304</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>131</v>
+      <c r="B65" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="10"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="15"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -3903,12 +4016,12 @@
       <c r="A66" s="3">
         <v>20180305</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>131</v>
+      <c r="B66" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="10"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -3917,12 +4030,12 @@
       <c r="A67" s="3">
         <v>20180306</v>
       </c>
-      <c r="B67" s="10" t="s">
-        <v>131</v>
+      <c r="B67" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="15"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -3931,12 +4044,12 @@
       <c r="A68" s="3">
         <v>20180307</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>131</v>
+      <c r="B68" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="10"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="15"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -3945,12 +4058,12 @@
       <c r="A69" s="3">
         <v>20180308</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>131</v>
+      <c r="B69" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="10"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="15"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -3959,12 +4072,12 @@
       <c r="A70" s="3">
         <v>20180309</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>131</v>
+      <c r="B70" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="10"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="15"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -3973,12 +4086,12 @@
       <c r="A71" s="3">
         <v>20180310</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>131</v>
+      <c r="B71" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="10"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="15"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -3987,12 +4100,12 @@
       <c r="A72" s="3">
         <v>20180311</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>131</v>
+      <c r="B72" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="10"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="15"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -4001,12 +4114,12 @@
       <c r="A73" s="3">
         <v>20180312</v>
       </c>
-      <c r="B73" s="10" t="s">
-        <v>131</v>
+      <c r="B73" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="10"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="15"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -4015,12 +4128,12 @@
       <c r="A74" s="3">
         <v>20180313</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>131</v>
+      <c r="B74" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="10"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="15"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -4029,12 +4142,12 @@
       <c r="A75" s="3">
         <v>20180314</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>131</v>
+      <c r="B75" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="10"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="15"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -4043,21 +4156,21 @@
       <c r="A76" s="3">
         <v>20180315</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>131</v>
+      <c r="B76" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="10"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="15"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4082,17 +4195,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1"/>
-      <c r="B1" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="9"/>
       <c r="D1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>119</v>
+      <c r="A2" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>113</v>
@@ -4881,43 +4994,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69A0288-DC06-4E4F-8827-8CC54BB8458F}">
-  <dimension ref="B4:D5"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:4">
-      <c r="B4" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>